--- a/SCRS_Return_Data.xlsx
+++ b/SCRS_Return_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilniraula/databaseR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilniraula/SCRS.deck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC0D737-8F5B-454F-8CAB-77A70C7AA525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929426C0-E381-8241-9389-4AAF82FCDD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1000" windowWidth="30720" windowHeight="16260" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30088,7 +30088,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30271,7 +30271,7 @@
         <v>2021</v>
       </c>
       <c r="B22" s="136">
-        <v>0.28600000000000003</v>
+        <v>0.29899999999999999</v>
       </c>
     </row>
   </sheetData>
